--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H2">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I2">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J2">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.290228054182965</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N2">
-        <v>0.290228054182965</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O2">
-        <v>0.5943164590385835</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P2">
-        <v>0.5943164590385835</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q2">
-        <v>15.91389859452647</v>
+        <v>19.69872560573967</v>
       </c>
       <c r="R2">
-        <v>15.91389859452647</v>
+        <v>177.288530451657</v>
       </c>
       <c r="S2">
-        <v>0.09601235865014701</v>
+        <v>0.08441845130811566</v>
       </c>
       <c r="T2">
-        <v>0.09601235865014701</v>
+        <v>0.1069828972082499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H3">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I3">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J3">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.198111196344376</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N3">
-        <v>0.198111196344376</v>
+        <v>0.047822</v>
       </c>
       <c r="O3">
-        <v>0.4056835409614166</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P3">
-        <v>0.4056835409614166</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q3">
-        <v>10.86291088551071</v>
+        <v>1.041162586987333</v>
       </c>
       <c r="R3">
-        <v>10.86291088551071</v>
+        <v>9.370463282886002</v>
       </c>
       <c r="S3">
-        <v>0.06553854102620507</v>
+        <v>0.004461879154650098</v>
       </c>
       <c r="T3">
-        <v>0.06553854102620507</v>
+        <v>0.005654507415864835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>226.758476880865</v>
+        <v>65.314871</v>
       </c>
       <c r="H4">
-        <v>226.758476880865</v>
+        <v>195.944613</v>
       </c>
       <c r="I4">
-        <v>0.6680911455631148</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J4">
-        <v>0.6680911455631148</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.290228054182965</v>
+        <v>0.319091</v>
       </c>
       <c r="N4">
-        <v>0.290228054182965</v>
+        <v>0.638182</v>
       </c>
       <c r="O4">
-        <v>0.5943164590385835</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P4">
-        <v>0.5943164590385835</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q4">
-        <v>65.8116715146263</v>
+        <v>20.841387502261</v>
       </c>
       <c r="R4">
-        <v>65.8116715146263</v>
+        <v>125.048325013566</v>
       </c>
       <c r="S4">
-        <v>0.3970575639461013</v>
+        <v>0.08931530350067673</v>
       </c>
       <c r="T4">
-        <v>0.3970575639461013</v>
+        <v>0.07545909522126745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>226.758476880865</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H5">
-        <v>226.758476880865</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I5">
-        <v>0.6680911455631148</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J5">
-        <v>0.6680911455631148</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.198111196344376</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N5">
-        <v>0.198111196344376</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O5">
-        <v>0.4056835409614166</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P5">
-        <v>0.4056835409614166</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q5">
-        <v>44.92339313609669</v>
+        <v>73.28852264800624</v>
       </c>
       <c r="R5">
-        <v>44.92339313609669</v>
+        <v>659.5967038320561</v>
       </c>
       <c r="S5">
-        <v>0.2710335816170136</v>
+        <v>0.3140763369383526</v>
       </c>
       <c r="T5">
-        <v>0.2710335816170136</v>
+        <v>0.3980266866965042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.8216170092744</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H6">
-        <v>57.8216170092744</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I6">
-        <v>0.1703579547605332</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J6">
-        <v>0.1703579547605332</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.290228054182965</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N6">
-        <v>0.290228054182965</v>
+        <v>0.047822</v>
       </c>
       <c r="O6">
-        <v>0.5943164590385835</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P6">
-        <v>0.5943164590385835</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q6">
-        <v>16.78145539431434</v>
+        <v>3.873614433943112</v>
       </c>
       <c r="R6">
-        <v>16.78145539431434</v>
+        <v>34.862529905488</v>
       </c>
       <c r="S6">
-        <v>0.1012465364423353</v>
+        <v>0.01660028866958584</v>
       </c>
       <c r="T6">
-        <v>0.1012465364423353</v>
+        <v>0.02103742663891827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>243.0020346666667</v>
+      </c>
+      <c r="H7">
+        <v>729.0061040000001</v>
+      </c>
+      <c r="I7">
+        <v>0.6629715554644989</v>
+      </c>
+      <c r="J7">
+        <v>0.6998074324621454</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.319091</v>
+      </c>
+      <c r="N7">
+        <v>0.638182</v>
+      </c>
+      <c r="O7">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P7">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q7">
+        <v>77.53976224382134</v>
+      </c>
+      <c r="R7">
+        <v>465.2385734629281</v>
+      </c>
+      <c r="S7">
+        <v>0.3322949298565606</v>
+      </c>
+      <c r="T7">
+        <v>0.2807433191267228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.69706</v>
+      </c>
+      <c r="I8">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J8">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P8">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q8">
+        <v>0.07007691337111112</v>
+      </c>
+      <c r="R8">
+        <v>0.6306922203400001</v>
+      </c>
+      <c r="S8">
+        <v>0.0003003130566740056</v>
+      </c>
+      <c r="T8">
+        <v>0.0003805845804394872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.69706</v>
+      </c>
+      <c r="I9">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J9">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.047822</v>
+      </c>
+      <c r="O9">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P9">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q9">
+        <v>0.003703867035555556</v>
+      </c>
+      <c r="R9">
+        <v>0.03333480332</v>
+      </c>
+      <c r="S9">
+        <v>1.587283996187431E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.011553611480374E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.69706</v>
+      </c>
+      <c r="I10">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J10">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.319091</v>
+      </c>
+      <c r="N10">
+        <v>0.638182</v>
+      </c>
+      <c r="O10">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P10">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q10">
+        <v>0.07414185748666667</v>
+      </c>
+      <c r="R10">
+        <v>0.4448511449200001</v>
+      </c>
+      <c r="S10">
+        <v>0.0003177332844469764</v>
+      </c>
+      <c r="T10">
+        <v>0.0002684407400112433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.316033</v>
+      </c>
+      <c r="I11">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J11">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P11">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q11">
+        <v>0.03177146467077778</v>
+      </c>
+      <c r="R11">
+        <v>0.285943182037</v>
+      </c>
+      <c r="S11">
+        <v>0.0001361559065788541</v>
+      </c>
+      <c r="T11">
+        <v>0.0001725494027917718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.316033</v>
+      </c>
+      <c r="I12">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J12">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.047822</v>
+      </c>
+      <c r="O12">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P12">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q12">
+        <v>0.001679258902888889</v>
+      </c>
+      <c r="R12">
+        <v>0.015113330126</v>
+      </c>
+      <c r="S12">
+        <v>7.196426751887965E-06</v>
+      </c>
+      <c r="T12">
+        <v>9.119979951467263E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>57.8216170092744</v>
-      </c>
-      <c r="H7">
-        <v>57.8216170092744</v>
-      </c>
-      <c r="I7">
-        <v>0.1703579547605332</v>
-      </c>
-      <c r="J7">
-        <v>0.1703579547605332</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.198111196344376</v>
-      </c>
-      <c r="N7">
-        <v>0.198111196344376</v>
-      </c>
-      <c r="O7">
-        <v>0.4056835409614166</v>
-      </c>
-      <c r="P7">
-        <v>0.4056835409614166</v>
-      </c>
-      <c r="Q7">
-        <v>11.45510972027367</v>
-      </c>
-      <c r="R7">
-        <v>11.45510972027367</v>
-      </c>
-      <c r="S7">
-        <v>0.06911141831819792</v>
-      </c>
-      <c r="T7">
-        <v>0.06911141831819792</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.316033</v>
+      </c>
+      <c r="I13">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J13">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.319091</v>
+      </c>
+      <c r="N13">
+        <v>0.638182</v>
+      </c>
+      <c r="O13">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P13">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q13">
+        <v>0.03361442866766667</v>
+      </c>
+      <c r="R13">
+        <v>0.201686572006</v>
+      </c>
+      <c r="S13">
+        <v>0.0001440538878771287</v>
+      </c>
+      <c r="T13">
+        <v>0.0001217056385217532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>57.880028</v>
+      </c>
+      <c r="H14">
+        <v>115.760056</v>
+      </c>
+      <c r="I14">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J14">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P14">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q14">
+        <v>17.45640421803067</v>
+      </c>
+      <c r="R14">
+        <v>104.738425308184</v>
+      </c>
+      <c r="S14">
+        <v>0.07480903277647707</v>
+      </c>
+      <c r="T14">
+        <v>0.06320330006658186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>57.880028</v>
+      </c>
+      <c r="H15">
+        <v>115.760056</v>
+      </c>
+      <c r="I15">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J15">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.047822</v>
+      </c>
+      <c r="O15">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P15">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q15">
+        <v>0.9226462330053335</v>
+      </c>
+      <c r="R15">
+        <v>5.535877398032</v>
+      </c>
+      <c r="S15">
+        <v>0.003953979950504136</v>
+      </c>
+      <c r="T15">
+        <v>0.003340566934151584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>57.880028</v>
+      </c>
+      <c r="H16">
+        <v>115.760056</v>
+      </c>
+      <c r="I16">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J16">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.319091</v>
+      </c>
+      <c r="N16">
+        <v>0.638182</v>
+      </c>
+      <c r="O16">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P16">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q16">
+        <v>18.468996014548</v>
+      </c>
+      <c r="R16">
+        <v>73.875984058192</v>
+      </c>
+      <c r="S16">
+        <v>0.07914847244278669</v>
+      </c>
+      <c r="T16">
+        <v>0.04457968481390837</v>
       </c>
     </row>
   </sheetData>
